--- a/Documentos/DocumentoIntegracion.xlsx
+++ b/Documentos/DocumentoIntegracion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Luis Chero.DESKTOP-1LBJD4E\Desktop\Proyecto Factura Electronica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Luis Chero.DESKTOP-1LBJD4E\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="270">
   <si>
     <t>NombreClase</t>
   </si>
@@ -839,6 +839,9 @@
   </si>
   <si>
     <t>/Invoice/cac:DiscrepancyResponse/cbc:Description</t>
+  </si>
+  <si>
+    <t>Codigo motivo anulacion</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1394,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,7 +2629,7 @@
         <v>258</v>
       </c>
       <c r="G50" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>250</v>
